--- a/format-standardify/files/Doc/tables.xlsx
+++ b/format-standardify/files/Doc/tables.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="leica-measure_formats" sheetId="1" r:id="rId1"/>
+    <sheet name="leica-codes" sheetId="2" r:id="rId2"/>
+    <sheet name="topcon-codes" sheetId="3" r:id="rId3"/>
+    <sheet name="rw5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="226">
   <si>
     <t>Позиція</t>
   </si>
@@ -22,20 +25,706 @@
     <t>Пояснення</t>
   </si>
   <si>
-    <t>Зазвичай, це сепаратор між індексом поля та інформацією про дані - ".". У  випадку, коли інформація знаходиться в першому полі вона набуває числового значення.</t>
-  </si>
-  <si>
     <t>Доступність</t>
   </si>
   <si>
-    <t>Всіх полів</t>
+    <t>Можливі значення</t>
+  </si>
+  <si>
+    <t>Опис</t>
+  </si>
+  <si>
+    <t>Для всіх полів</t>
+  </si>
+  <si>
+    <t>"."</t>
+  </si>
+  <si>
+    <t>сепаратор між індексом поля та інформацією про дані</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>цифра в номері поточного рядка</t>
+  </si>
+  <si>
+    <t>Зазвичай, це сепаратор між індексом поля та інформацією про дані. У  випадку, коли інформація знаходиться в першому полі вона набуває числового значення.</t>
+  </si>
+  <si>
+    <t>Для кутів</t>
+  </si>
+  <si>
+    <t>Автоіндекс</t>
+  </si>
+  <si>
+    <t>Вимкнений</t>
+  </si>
+  <si>
+    <t>Увімкнений</t>
+  </si>
+  <si>
+    <t>Реживм введення даних</t>
+  </si>
+  <si>
+    <t>Дані з інструмента</t>
+  </si>
+  <si>
+    <t>Вручну введені дані з клавіш</t>
+  </si>
+  <si>
+    <t>Обчислене значення з корекцією горизонтальних кутів</t>
+  </si>
+  <si>
+    <t>Обчислене значення без корекції горизонтальних кутів</t>
+  </si>
+  <si>
+    <t>Результат обчилений з функції</t>
+  </si>
+  <si>
+    <t>Для вимірів</t>
+  </si>
+  <si>
+    <t>Одиниці вимірювання</t>
+  </si>
+  <si>
+    <t>Метри, остання цифра - 1мм</t>
+  </si>
+  <si>
+    <t>400 гон</t>
+  </si>
+  <si>
+    <t>360 десяткових градусів</t>
+  </si>
+  <si>
+    <t>360 шестидесятидесяткових градусів</t>
+  </si>
+  <si>
+    <t>6400 міл</t>
+  </si>
+  <si>
+    <t>Метри, остання цифра - 0.1мм</t>
+  </si>
+  <si>
+    <t>Фути, остання цифра - 1/10 000фт</t>
+  </si>
+  <si>
+    <t>Фути, остання цифра - 1/1000фт</t>
+  </si>
+  <si>
+    <t>Метри, остання цифра - 0.01мм</t>
+  </si>
+  <si>
+    <t>Індекс</t>
+  </si>
+  <si>
+    <t>Значення</t>
+  </si>
+  <si>
+    <t>Номер точки</t>
+  </si>
+  <si>
+    <t>Серійний номер інструмента</t>
+  </si>
+  <si>
+    <t>Тип інструмента</t>
+  </si>
+  <si>
+    <t>Номер станції</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Час</t>
+  </si>
+  <si>
+    <t>Горизонтальний кут</t>
+  </si>
+  <si>
+    <t>Вертикальний кут</t>
+  </si>
+  <si>
+    <t>Похила відстань</t>
+  </si>
+  <si>
+    <t>Горизонтальна відстань</t>
+  </si>
+  <si>
+    <t>Різниця висот</t>
+  </si>
+  <si>
+    <t>Введений номер станції</t>
+  </si>
+  <si>
+    <t>Введене ім'я станції</t>
+  </si>
+  <si>
+    <t>Введена висота станції</t>
+  </si>
+  <si>
+    <t>Число вимірів</t>
+  </si>
+  <si>
+    <t>Середньоквадратична похибка</t>
+  </si>
+  <si>
+    <t>Костанти: ppm/константа призми</t>
+  </si>
+  <si>
+    <t>Константа призми</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>Координата X цілі</t>
+  </si>
+  <si>
+    <t>Висота цілі</t>
+  </si>
+  <si>
+    <t>Координата Y цілі</t>
+  </si>
+  <si>
+    <t>Координата X станції</t>
+  </si>
+  <si>
+    <t>Координата Y станції</t>
+  </si>
+  <si>
+    <t>Висота станції</t>
+  </si>
+  <si>
+    <t>Висота відбивача</t>
+  </si>
+  <si>
+    <t>Висота інструмента</t>
+  </si>
+  <si>
+    <t>Тип запису</t>
+  </si>
+  <si>
+    <t>Зразок запису</t>
+  </si>
+  <si>
+    <t>Значення поля</t>
+  </si>
+  <si>
+    <t>Шифр поля</t>
+  </si>
+  <si>
+    <t>UNITS   a,b</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Ідентифікатор запису одиниць вимірювання</t>
+  </si>
+  <si>
+    <t>одиниці вимірювання віддалей: M – метри; F – фути.</t>
+  </si>
+  <si>
+    <t>одиниці вимірювання кутів: D – градуси; G – гони</t>
+  </si>
+  <si>
+    <t>STN     Nst,i,Code</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>Nst</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Ідентифікатор запису станції</t>
+  </si>
+  <si>
+    <t>Назва пункту</t>
+  </si>
+  <si>
+    <t>Код пункту</t>
+  </si>
+  <si>
+    <t>XYZ   Y,X,H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t>BKB     Ntr,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>R</t>
+    </r>
+  </si>
+  <si>
+    <t>BKB</t>
+  </si>
+  <si>
+    <t>Ntr</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SS      Np,V,Code</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>HV      R,B</t>
+  </si>
+  <si>
+    <t>SD      R,B,D</t>
+  </si>
+  <si>
+    <t>HD      R,S,dH</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>dH</t>
+  </si>
+  <si>
+    <t>Примітка</t>
+  </si>
+  <si>
+    <t>Ідентифікатор запису координат.</t>
+  </si>
+  <si>
+    <t>Східна координата</t>
+  </si>
+  <si>
+    <t>Північна координата</t>
+  </si>
+  <si>
+    <t>Висота</t>
+  </si>
+  <si>
+    <t>Ідентифікатор запису напрямку орієнтування</t>
+  </si>
+  <si>
+    <t>Назва пункту орієнтування</t>
+  </si>
+  <si>
+    <t>Азимут на пункт орієнтування (програмою RGS не враховується)</t>
+  </si>
+  <si>
+    <t>Відлік по горизонтальному кругу на пункт орієнтування</t>
+  </si>
+  <si>
+    <t>Ідентифікатор запису точки, пункту</t>
+  </si>
+  <si>
+    <t>Назва пункту, точки спостереження</t>
+  </si>
+  <si>
+    <t>Висота наведення</t>
+  </si>
+  <si>
+    <t>Код пункту, точки</t>
+  </si>
+  <si>
+    <t>Відлік по горизонтальному кругу</t>
+  </si>
+  <si>
+    <t>Горизонтальне перевищення</t>
+  </si>
+  <si>
+    <t>Перевищення</t>
+  </si>
+  <si>
+    <t>Якщо XYZ існує, то повинно бути після STN</t>
+  </si>
+  <si>
+    <t>Якщо BKB існує, то повинно бути після STN</t>
+  </si>
+  <si>
+    <t>HV, SD и HD повинні бути після SS</t>
+  </si>
+  <si>
+    <t>Запис одиниць вимірювання</t>
+  </si>
+  <si>
+    <t>Запис станції</t>
+  </si>
+  <si>
+    <t>Запис координат</t>
+  </si>
+  <si>
+    <t>Запис пункту наведення</t>
+  </si>
+  <si>
+    <t>Запис точки</t>
+  </si>
+  <si>
+    <t>Запис виміру на точці</t>
+  </si>
+  <si>
+    <t>Опис поля</t>
+  </si>
+  <si>
+    <t>Назва поля</t>
+  </si>
+  <si>
+    <t>Опис запису</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Загальні дані робочої сесії</t>
+  </si>
+  <si>
+    <t>Назва робочої сесії</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Азимут</t>
+  </si>
+  <si>
+    <t>Масштаб</t>
+  </si>
+  <si>
+    <t>Кривизна Землі. 0 - неврахована, 1 - врахована</t>
+  </si>
+  <si>
+    <t>Стала призми</t>
+  </si>
+  <si>
+    <t>Кутові одиниці вимірювання</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Запис налаштувань</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Проміжні висоти</t>
+  </si>
+  <si>
+    <t>Висота віхи</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Antenna Type</t>
+  </si>
+  <si>
+    <t>Дані про антену</t>
+  </si>
+  <si>
+    <t>Не всі програми видають дану інформацію</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Зміщення фазового цетнтру антени по висоті</t>
+  </si>
+  <si>
+    <t>Радіус антени</t>
+  </si>
+  <si>
+    <t>Нахил фазового центру</t>
+  </si>
+  <si>
+    <t>Висота віхи введена користувачем</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Запис базової точки</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Широта</t>
+  </si>
+  <si>
+    <t>Довгота</t>
+  </si>
+  <si>
+    <t>Висота антени</t>
+  </si>
+  <si>
+    <t>Відстань від фазового центру до антени</t>
+  </si>
+  <si>
+    <t>Тип підключення з ПК</t>
+  </si>
+  <si>
+    <t>Харктер мережевого з'єднання</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Запис на точці</t>
+  </si>
+  <si>
+    <t>Назва точки</t>
+  </si>
+  <si>
+    <t>Висота над еліпсоїдом точки</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>GPS тиждень на старті виміру</t>
+  </si>
+  <si>
+    <t>GPS тиждень в кінці виміру</t>
+  </si>
+  <si>
+    <t>Час в секундах від початку GPS тижня на старті виміру</t>
+  </si>
+  <si>
+    <t>Час в секундах від початку GPS тижня в кінці виміру</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Місцевий час</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Запис редукованих локальних координат</t>
+  </si>
+  <si>
+    <t>Додаткові дані супутникових вимірів</t>
+  </si>
+  <si>
+    <t>HSDV</t>
+  </si>
+  <si>
+    <t>VSDV</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SATS</t>
+  </si>
+  <si>
+    <t>PDOP</t>
+  </si>
+  <si>
+    <t>VDOP</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>HDOP</t>
+  </si>
+  <si>
+    <t>TDOP</t>
+  </si>
+  <si>
+    <t>GDOP</t>
+  </si>
+  <si>
+    <t>NSDV</t>
+  </si>
+  <si>
+    <t>ESDV</t>
+  </si>
+  <si>
+    <t>Статус розв'язку</t>
+  </si>
+  <si>
+    <t>Кількість доступних супутників</t>
+  </si>
+  <si>
+    <t>Час затримки сигналу</t>
+  </si>
+  <si>
+    <t>Горизонтальне стандартне відхилення</t>
+  </si>
+  <si>
+    <t>Вертикальне стандартне відхилення</t>
+  </si>
+  <si>
+    <t>Північне стандартне відхилення</t>
+  </si>
+  <si>
+    <t>Східне стандартне відхилення</t>
+  </si>
+  <si>
+    <t>Погіршення точності в горизонтальній площині</t>
+  </si>
+  <si>
+    <t>Погіршення точності у вертикальній площині</t>
+  </si>
+  <si>
+    <t>Погіршення точності через часову складову</t>
+  </si>
+  <si>
+    <t>Погіршення точності через позиційну складову</t>
+  </si>
+  <si>
+    <t>Сумарне геометричне погіршення точності з часовою і позиційною складовою</t>
+  </si>
+  <si>
+    <t>Широта точки (WGS84)</t>
+  </si>
+  <si>
+    <t>Довгота точки (WGS84)</t>
+  </si>
+  <si>
+    <t>завжди в метрах</t>
+  </si>
+  <si>
+    <t>Одиниці вимірювання віддалі. 0 - Фути, 1 - Метри, 2 - Американські фути</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +732,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E4349"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,12 +808,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,47 +1311,1511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D6"/>
+  <dimension ref="B4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
         <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>